--- a/biology/Zoologie/Apidae/Apidae.xlsx
+++ b/biology/Zoologie/Apidae/Apidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Apidés (Apidae) forment une famille d'insectes de l'ordre des hyménoptères. Il s'agit de la famille d'abeilles la plus large et diversifiée, avec plus de 5 700 espèces. Elle comprend des abeilles solitaires, parasites, cléptoparasites et sociales. On y trouve notamment les abeilles à miel. Les premières formes sociales élaborées et stables sont apparues dans cette famille il y a au moins 87 millions d'années chez les ancêtres de la tribu des corbiculate (près de 1 000 espèces d'abeilles à corbiculae). Les organisations les plus complexes sont apparues dans la tribu des Meliponini il y a plus de 55 millions d'années et dans la tribu des Apini il y a une vingtaine de millions d'années[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Apidés (Apidae) forment une famille d'insectes de l'ordre des hyménoptères. Il s'agit de la famille d'abeilles la plus large et diversifiée, avec plus de 5 700 espèces. Elle comprend des abeilles solitaires, parasites, cléptoparasites et sociales. On y trouve notamment les abeilles à miel. Les premières formes sociales élaborées et stables sont apparues dans cette famille il y a au moins 87 millions d'années chez les ancêtres de la tribu des corbiculate (près de 1 000 espèces d'abeilles à corbiculae). Les organisations les plus complexes sont apparues dans la tribu des Meliponini il y a plus de 55 millions d'années et dans la tribu des Apini il y a une vingtaine de millions d'années.
 </t>
         </is>
       </c>
@@ -511,13 +523,51 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Apidés comprend trois sous-familles :
 Apinae, dont font partie les abeilles dites « vraies », et parmi ces dernières les abeilles à miel.
 Nomadinae, des abeilles cleptoparasites
 Xylocopinae, dont les abeilles charpentières
-Liste des genres
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Apidae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Apidae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Acanthopus
 Aethammobates
 Afromelecta
@@ -696,34 +746,39 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Apidae</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Apidae</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au sein des abeilles
-Phylogénie des familles actuelles d'abeilles, d'après Hedtke et al., 2013 :[2]
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Au sein des abeilles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phylogénie des familles actuelles d'abeilles, d'après Hedtke et al., 2013 :
 </t>
         </is>
       </c>
